--- a/03_Data Analytics/Excel_New_Batch/mar11.xlsx
+++ b/03_Data Analytics/Excel_New_Batch/mar11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\23_AI_Gen\03_Data Analytics\Excel_New_Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B36DA-908A-42D6-B249-32CE1F99FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4EE55-2EBC-4B77-B514-06DF5174DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,18 +183,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,18 +557,18 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -636,7 +634,7 @@
         <f>YEAR(A4)</f>
         <v>2004</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <f>DAY(A4)</f>
         <v>19</v>
       </c>
@@ -704,7 +702,7 @@
         <f t="shared" ref="C5:C18" si="0">YEAR(A5)</f>
         <v>2007</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <f t="shared" ref="D5:D18" si="1">DAY(A5)</f>
         <v>9</v>
       </c>
@@ -772,7 +770,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -840,7 +838,7 @@
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -908,7 +906,7 @@
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -976,7 +974,7 @@
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -1044,7 +1042,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -1112,7 +1110,7 @@
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -1180,7 +1178,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -1248,7 +1246,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -1316,7 +1314,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -1384,7 +1382,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -1452,7 +1450,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -1520,7 +1518,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -1588,7 +1586,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -1647,7 +1645,6 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="D19" s="4"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1677,7 +1674,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,60 +1683,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>41015</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">
